--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\家庭保险\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCA68D-2DD6-4FED-AF55-848FAA267795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
     <sheet name="保险比较" sheetId="2" r:id="rId2"/>
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝好医保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50万/5万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,14 +330,102 @@
   </si>
   <si>
     <t>阳光i保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证续保6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次6年合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝好医保长期医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微医保长期医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可投保年龄上限50岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可投保年龄上限60岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可投保年龄上限65岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300万/600万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可续保至100岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次5年合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防癌险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期寿险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦甜蜜家(夫妻共同)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同投保会节省保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦定期寿险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵人寿保险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +484,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -419,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -430,6 +520,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -702,26 +798,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,16 +859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0873D3-3C7D-41A5-BDF1-57F0945FC8B9}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -795,18 +891,18 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -815,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -832,22 +928,22 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -863,20 +959,23 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -893,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -910,59 +1009,63 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -978,144 +1081,273 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>366</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="10">
+        <v>387</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13">
+        <v>276</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14">
+        <v>451</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22">
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="7">
         <v>928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1368</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
+      <c r="B25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1">
+      <c r="A26" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1125,21 +1357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FA84A-C45F-4C66-B8F5-61508C907118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6"/>
-    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.77734375" style="6"/>
+    <col min="1" max="1" width="20.75" style="6"/>
+    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1162,59 +1394,59 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8">
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6">
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1225,22 +1457,22 @@
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6">
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1251,97 +1483,97 @@
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6">
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6">
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="6">
         <v>6541.5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6">
         <v>5083</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859724E-CCF9-436F-BA84-98DE29AC9F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,16 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,14 +418,34 @@
   </si>
   <si>
     <t>华贵人寿保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级玛丽2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和泰人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康保2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -526,6 +546,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,26 +821,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,16 +882,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -894,7 +917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -911,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -943,7 +966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -975,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1056,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1082,13 +1105,13 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1">
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1252,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>71</v>
       </c>
@@ -1269,7 +1292,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1">
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>92</v>
       </c>
@@ -1322,7 +1345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1">
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>96</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1">
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1357,21 +1380,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="6"/>
-    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.75" style="6"/>
+    <col min="1" max="1" width="20.77734375" style="6"/>
+    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1423,7 +1446,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1446,7 +1469,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1495,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1521,7 @@
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1544,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
@@ -1550,12 +1573,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>50</v>
@@ -1574,6 +1600,22 @@
       </c>
       <c r="I9" s="6" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859724E-CCF9-436F-BA84-98DE29AC9F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝健康福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微医保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好医保重疾险(支付宝健康福)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7711.5/身故返保费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6008.0/身故返保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3600/5200(终身)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,14 +420,130 @@
   </si>
   <si>
     <t>健康保2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好医保重疾险(支付宝健康福终身版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝健康福(定期版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乐一生重大疾病保险C款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至70岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝好医保长期医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝健康福定期重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3550/身故返还保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期寿险(爱相随或阳光i保)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至60岁或30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次5500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合意外险 护身符或小蜜蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5486.36(含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4349.69(不含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至80岁(定期只有80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4058/含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6473/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠保旗舰版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6095.0/身故返保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5065/5330含特定疾病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,26 +919,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,6 +972,59 @@
       </c>
       <c r="K1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -882,16 +1034,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -917,15 +1069,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -934,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -951,22 +1103,22 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -983,22 +1135,22 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1051,12 +1203,12 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1073,22 +1225,22 @@
         <v>25</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1108,15 +1260,15 @@
         <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -1132,61 +1284,61 @@
         <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="10">
         <v>387</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1203,19 +1355,19 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H14">
         <v>451</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1252,12 +1404,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18" customHeight="1">
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -1266,111 +1418,111 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="H22" s="9">
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H23" s="7">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="H24" s="11">
         <v>1368</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="H25" s="9">
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18" customHeight="1">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1380,21 +1532,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6"/>
-    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.77734375" style="6"/>
+    <col min="1" max="1" width="20.75" style="6"/>
+    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1420,56 +1572,56 @@
         <v>44</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="8">
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="6">
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1480,22 +1632,22 @@
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H4" s="6">
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1506,117 +1658,211 @@
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="6">
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H6" s="6">
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="6">
         <v>6541.5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="6">
-        <v>5083</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="B12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="D12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CCF92-CCA9-471C-98AE-11D029F55404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="2"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国人保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3550/身故返还保费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,31 +521,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4058/含特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6473/保终身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康惠保旗舰版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6095.0/身故返保费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5065/5330含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3208/4058含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5083/6473特疾/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠保旗舰版（注意定点医院问题!!!）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,27 +921,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,9 +976,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
@@ -985,27 +987,27 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1016,15 +1018,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1034,16 +1036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1210,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1">
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1">
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>89</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1">
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>93</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1">
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1532,21 +1534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="6"/>
-    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.75" style="6"/>
+    <col min="1" max="1" width="20.77734375" style="6"/>
+    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1748,18 +1750,18 @@
         <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>97</v>
@@ -1777,13 +1779,13 @@
         <v>48</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>99</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>104</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>106</v>
@@ -1811,13 +1813,13 @@
         <v>107</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -1840,12 +1842,12 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>104</v>
@@ -1860,7 +1862,7 @@
         <v>107</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="12"/>
     </row>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CCF92-CCA9-471C-98AE-11D029F55404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,79 +467,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3550/身故返还保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期寿险(爱相随或阳光i保)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至60岁或30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次5500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合意外险 护身符或小蜜蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4349.69(不含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至80岁(定期只有80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6095.0/身故返保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5065/5330含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3208/4058含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至70岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600/3550附加特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400/5850附加特定/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的特疾是它的重疾中排除的一些，比如原位癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2900/4700(慧择保险报价?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的特疾是成人特疾额外赔付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5890(含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人特疾</t>
+  </si>
+  <si>
+    <t>成人特疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康瑞保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠保旗舰版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3355/4600(80岁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安邦超惠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安邦保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5251/6430(含特疾额外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5083/6473特疾/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>支付宝健康福定期重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3550/身故返还保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期寿险(爱相随或阳光i保)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至60岁或30年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次5500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合意外险 护身符或小蜜蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5486.36(含成人特定疾病)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4349.69(不含成人特定疾病)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至80岁(定期只有80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6095.0/身故返保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5065/5330含特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3208/4058含特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5083/6473特疾/保终身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康惠保旗舰版（注意定点医院问题!!!）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +627,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -629,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -647,6 +723,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,27 +1000,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,9 +1055,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
@@ -987,27 +1066,27 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1018,15 +1097,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1036,16 +1115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1119,8 +1198,11 @@
       <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1168,8 +1250,11 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1270,11 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1298,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +1380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1494,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18" customHeight="1">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -1446,7 +1534,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1560,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>89</v>
       </c>
@@ -1499,7 +1587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18" customHeight="1">
       <c r="B25" s="9" t="s">
         <v>93</v>
       </c>
@@ -1522,7 +1610,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18" customHeight="1">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1534,21 +1622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6"/>
-    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.77734375" style="6"/>
+    <col min="1" max="1" width="20.75" style="6"/>
+    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1688,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1711,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1737,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1763,7 @@
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1786,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1727,7 +1815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1750,124 +1838,205 @@
         <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="6">
         <v>3715</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    <row r="17" spans="2:8" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
 </worksheet>
 </file>
--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0DEDC-B7AB-40D4-BC59-FEDDA8D10062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="2"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="151">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,14 +613,30 @@
   </si>
   <si>
     <t>支付宝健康福定期重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦正青春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格优势明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵人寿保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能大白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,27 +1022,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1097,7 +1119,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -1115,16 +1137,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="H14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1296,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1320,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1">
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1508,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -1534,7 +1556,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -1560,7 +1582,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1">
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>89</v>
       </c>
@@ -1587,7 +1609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1">
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>93</v>
       </c>
@@ -1610,9 +1632,27 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>87</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1622,21 +1662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="6"/>
-    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.75" style="6"/>
+    <col min="1" max="1" width="20.77734375" style="6"/>
+    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1728,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1751,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1777,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1803,7 @@
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1826,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1815,7 +1855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1919,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
@@ -1905,7 +1945,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>95</v>
       </c>
@@ -1916,7 +1956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>99</v>
       </c>
@@ -1942,7 +1982,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>136</v>
       </c>
@@ -1965,7 +2005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>140</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -2011,7 +2051,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="2:8" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>146</v>
       </c>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0DEDC-B7AB-40D4-BC59-FEDDA8D10062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,14 +623,54 @@
   </si>
   <si>
     <t>智能大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱倍至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>664.19/7970.28每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠宝白领版(京东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">365/每年4380 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻中重 含特疾额外赔付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,27 +1056,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1108,7 +1142,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -1137,16 +1171,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1276,7 +1310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1330,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1320,7 +1354,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1352,307 +1386,329 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>359</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11">
-        <v>259</v>
       </c>
       <c r="I11" t="s">
         <v>73</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12">
+        <v>259</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H13" s="10">
         <v>387</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>276</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>276</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>451</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>86</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>1144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>992</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:9" ht="18" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>1368</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="26" spans="1:9" ht="18" customHeight="1">
+      <c r="B26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="B27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1">
+      <c r="A29" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1662,21 +1718,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6"/>
-    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.77734375" style="6"/>
+    <col min="1" max="1" width="20.75" style="6"/>
+    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1728,7 +1784,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1807,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1777,7 +1833,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1859,7 @@
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1882,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1855,7 +1911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1919,104 +1975,101 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="B14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>107</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>47</v>
@@ -2025,52 +2078,78 @@
         <v>107</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="6">
         <v>3715</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>111</v>
       </c>
     </row>

--- a/保险/保险清单.xlsx
+++ b/保险/保险清单.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tips\SummaryForLearning\保险\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0956A66E-BACD-473C-A860-3F453A904542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23445" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保单记录" sheetId="1" r:id="rId1"/>
     <sheet name="保险比较" sheetId="2" r:id="rId2"/>
     <sheet name="重疾对比" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="177">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缴费额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,11 +459,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝好医保长期医疗</t>
+    <t>3550/身故返还保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4349.69(不含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至80岁(定期只有80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6095.0/身故返保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5065/5330含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3208/4058含特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至70岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600/3550附加特定疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400/5850附加特定/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的特疾是它的重疾中排除的一些，比如原位癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2900/4700(慧择保险报价?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的特疾是成人特疾额外赔付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5890(含成人特定疾病)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人特疾</t>
+  </si>
+  <si>
+    <t>成人特疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康瑞保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠保旗舰版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3355/4600(80岁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海，陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安邦超惠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安邦保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5251/6430(含特疾额外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5083/6473特疾/保终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝健康福定期重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦正青春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格优势明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵人寿保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱倍至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>664.19/7970.28每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠宝白领版(京东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">365/每年4380 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻中重 含特疾额外赔付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好医保长期医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全民宝.定期寿险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康福重疾险.定期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方全球人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,63 +674,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3550/身故返还保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期寿险(爱相随或阳光i保)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至60岁或30年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次5500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合意外险 护身符或小蜜蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4349.69(不含成人特定疾病)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至80岁(定期只有80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6095.0/身故返保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5065/5330含特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3208/4058含特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康惠宝</t>
+    <t>100w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至60岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,146 +690,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至70岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600/3550附加特定疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4400/5850附加特定/保终身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的特疾是它的重疾中排除的一些，比如原位癌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2900/4700(慧择保险报价?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的特疾是成人特疾额外赔付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5890(含成人特定疾病)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成人特疾</t>
-  </si>
-  <si>
-    <t>成人特疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康瑞保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康惠保旗舰版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3355/4600(80岁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海，陕西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安邦超惠宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安邦保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5251/6430(含特疾额外)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5083/6473特疾/保终身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝健康福定期重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大麦正青春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格优势明显</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华贵人寿保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能大白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱倍至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身</t>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媳妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康惠宝旗舰版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜜蜂超越版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴21.63*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计/年缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年缴费额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>664.19/7970.28每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康惠宝白领版(京东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">365/每年4380 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻中重 含特疾额外赔付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +766,22 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -761,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -782,6 +874,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,35 +1154,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1102,90 +1196,300 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15">
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4">
         <v>259</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8">
+        <v>259</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="14">
+        <f>SUM(I2:I16)</f>
+        <v>8575</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:K18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1194,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1203,365 +1507,365 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="F8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
       <c r="H11">
         <v>359</v>
       </c>
       <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12">
         <v>259</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="10">
         <v>387</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14">
         <v>276</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15">
         <v>451</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1570,174 +1874,175 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1">
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="9">
         <v>1144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="7">
         <v>992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1">
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="11">
         <v>1368</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="B26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="9">
         <v>1032</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1">
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1">
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="6"/>
-    <col min="2" max="2" width="36.125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="20.75" style="6"/>
+    <col min="1" max="1" width="20.77734375" style="6"/>
+    <col min="2" max="2" width="36.109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="20.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -1746,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
@@ -1755,402 +2060,402 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="8">
         <v>5345</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="6">
         <v>8525</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="6">
         <v>5775</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6">
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6">
         <v>8300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="6">
         <v>6541.5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="B16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="6">
         <v>3715</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
